--- a/outputs-HGR-r202/o__Treponematales.xlsx
+++ b/outputs-HGR-r202/o__Treponematales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,18 +459,338 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT11406.fa</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>177.7428114022824</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT11644.fa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>81.64696102468008</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT23276.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-31.6501582903087</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT23295.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>435.4509027544881</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34540.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>274.7134687556575</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34945.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>144.7750615116307</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT50132.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>73.24368838188269</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT50868.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-76.0372263241629</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT52820.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-49.23141980585532</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT52923.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>175.374719416623</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT52941.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>81.01890072729242</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5342.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-38.94794903346684</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6619.fa</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>164.208622899538</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6722.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>114.7323567841643</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT78923.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>803.7642891112517</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT8083.fa</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>f__Treponemataceae</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="B17" t="n">
+        <v>683.7171761777355</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9688.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>79.73192597573313</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>f__Treponemataceae</t>
         </is>

--- a/outputs-HGR-r202/o__Treponematales.xlsx
+++ b/outputs-HGR-r202/o__Treponematales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,11 +459,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11406.fa</t>
+          <t>even_MAG-GUT10270.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.7428114022824</v>
+        <v>7908.498111126562</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -479,11 +479,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11644.fa</t>
+          <t>even_MAG-GUT10398.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.64696102468008</v>
+        <v>5620.088174489857</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -499,11 +499,11 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23276.fa</t>
+          <t>even_MAG-GUT10625.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-31.6501582903087</v>
+        <v>12184.92494327922</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -512,18 +512,18 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>f__Treponemataceae(reject)</t>
+          <t>f__Treponemataceae</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23295.fa</t>
+          <t>even_MAG-GUT11210.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>435.4509027544881</v>
+        <v>7357.686742408126</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -539,11 +539,11 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34540.fa</t>
+          <t>even_MAG-GUT11332.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>274.7134687556575</v>
+        <v>6441.546017582938</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -559,11 +559,11 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34945.fa</t>
+          <t>even_MAG-GUT11406.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>144.7750615116307</v>
+        <v>177.7428114022824</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -579,11 +579,11 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50132.fa</t>
+          <t>even_MAG-GUT11644.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.24368838188269</v>
+        <v>81.64696102468008</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -599,11 +599,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50868.fa</t>
+          <t>even_MAG-GUT13045.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-76.0372263241629</v>
+        <v>9782.805458790179</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -612,18 +612,18 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>f__Treponemataceae(reject)</t>
+          <t>f__Treponemataceae</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52820.fa</t>
+          <t>even_MAG-GUT14741.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-49.23141980585532</v>
+        <v>9782.805458790179</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -632,18 +632,18 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>f__Treponemataceae(reject)</t>
+          <t>f__Treponemataceae</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52923.fa</t>
+          <t>even_MAG-GUT15742.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>175.374719416623</v>
+        <v>9299.085195883687</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -659,11 +659,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52941.fa</t>
+          <t>even_MAG-GUT1677.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81.01890072729242</v>
+        <v>5000.236695926156</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -679,11 +679,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5342.fa</t>
+          <t>even_MAG-GUT17255.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-38.94794903346684</v>
+        <v>6768.617356883575</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -692,18 +692,18 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>f__Treponemataceae(reject)</t>
+          <t>f__Treponemataceae</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6619.fa</t>
+          <t>even_MAG-GUT17515.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>164.208622899538</v>
+        <v>5778.605120903196</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -719,11 +719,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6722.fa</t>
+          <t>even_MAG-GUT20287.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>114.7323567841643</v>
+        <v>7127.130259066898</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -739,11 +739,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78923.fa</t>
+          <t>even_MAG-GUT2203.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.7642891112517</v>
+        <v>5968.93329359936</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -759,11 +759,11 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8083.fa</t>
+          <t>even_MAG-GUT23276.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>683.7171761777355</v>
+        <v>-31.6501582903087</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -772,25 +772,1605 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>f__Treponemataceae</t>
+          <t>f__Treponemataceae(reject)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT23295.fa</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>435.4509027544881</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT24052.fa</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8105.791741833399</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT25048.fa</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>12105.05617067993</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT25340.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7616.140617458069</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29189.fa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>8923.320067141965</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29214.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>8700.012433189211</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29221.fa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>8875.616056611345</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT29476.fa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>7284.667869707603</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT32691.fa</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>8545.265469524829</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34540.fa</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>274.7134687556575</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT34945.fa</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>144.7750615116307</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT37976.fa</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6684.780458293078</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43152.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>7620.375621230455</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43233.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>10824.52255444847</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43329.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7407.943044183565</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT43835.fa</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4562.942591153815</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT47875.fa</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5101.057638129848</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT50132.fa</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>73.24368838188269</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT50868.fa</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-76.0372263241629</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT51928.fa</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>8473.197880233776</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT52820.fa</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-49.23141980585532</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT52923.fa</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>175.374719416623</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT52941.fa</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>81.01890072729242</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5342.fa</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-38.94794903346684</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT56604.fa</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>7932.179489187779</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57066.fa</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>7961.119244964145</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57346.fa</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>7932.179489187779</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57592.fa</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>7623.809687707184</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT57988.fa</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>6049.200477477625</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58133.fa</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>7108.375135546425</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT58310.fa</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>12352.26531154434</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59576.fa</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>8461.00680224373</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5959.fa</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>6795.933566603263</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60320.fa</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4309.035005439657</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60370.fa</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>11152.46824129772</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60605.fa</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3928.31635301159</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60882.fa</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>6911.967408966422</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT60999.fa</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>8012.128804489524</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61376.fa</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>4792.687004262894</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61937.fa</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>7456.731845512781</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62054.fa</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>8436.739435832371</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6619.fa</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>164.208622899538</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6722.fa</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>114.7323567841643</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT7040.fa</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>9254.761501805742</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT72119.fa</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>9481.560046865938</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT72127.fa</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>9265.528803333847</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT74329.fa</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>5860.288910298726</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75402.fa</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>5353.065355083497</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75430.fa</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>7378.780411564873</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT80816.fa</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6935.95427469686</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT8083.fa</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>683.7171761777355</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81679.fa</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>7385.158274562776</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81926.fa</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>6017.539729496832</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81946.fa</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>5543.461522852231</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT81987.fa</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>7385.158274562776</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82105.fa</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>7408.58473746435</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82468.fa</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>10485.29978731711</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82635.fa</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>9015.900816378644</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82654.fa</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>8624.165301282299</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82703.fa</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>8961.71119130759</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT82744.fa</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>6984.867144548161</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89180.fa</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>12412.57328849092</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89206.fa</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>12412.57328849092</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89290.fa</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>12412.57328849092</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89315.fa</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>9502.686554940638</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89344.fa</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>10951.48246990888</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89353.fa</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>12412.57328849092</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89571.fa</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>9627.261967286549</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89719.fa</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>12412.57328849092</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90109.fa</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>12412.57328849092</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90165.fa</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>12412.57328849092</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90191.fa</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>9502.686554940638</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90290.fa</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>10603.57224635025</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90502.fa</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>9627.261967286549</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90506.fa</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>12412.57328849092</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90686.fa</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>9928.40234430465</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90976.fa</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>12412.57328849092</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91118.fa</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>12412.57328849092</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91137.fa</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>12412.57328849092</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT9688.fa</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B97" t="n">
         <v>79.73192597573313</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>f__Treponemataceae</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>f__Treponemataceae</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>f__Treponemataceae</t>
         </is>
